--- a/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,219 +43,225 @@
     <t>waste</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>poorly</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointing</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>however</t>
+    <t>tried</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>work</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>light</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>within</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>ball</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>never</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>son</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
@@ -268,37 +274,46 @@
     <t>negative</t>
   </si>
   <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>expansion</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>elf</t>
+    <t>highly</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>blast</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wonderful</t>
   </si>
   <si>
     <t>challenge</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>strategy</t>
   </si>
   <si>
     <t>helicopter</t>
@@ -310,76 +325,94 @@
     <t>wait</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>books</t>
+  </si>
+  <si>
+    <t>challenging</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>ages</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>lego</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>hit</t>
   </si>
   <si>
     <t>everyone</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>game</t>
+    <t>lots</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>lots</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>enjoyed</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>play</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>play</t>
+    <t>playing</t>
   </si>
   <si>
     <t>well</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>positive</t>
@@ -740,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,10 +781,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -830,16 +863,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K3">
-        <v>0.8936170212765957</v>
+        <v>0.890625</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -851,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -859,13 +892,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9565217391304348</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -877,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K4">
-        <v>0.8817204301075269</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -901,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -909,13 +942,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9516129032258065</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -927,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K5">
         <v>0.875</v>
@@ -959,13 +992,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9466019417475728</v>
+        <v>0.9578947368421052</v>
       </c>
       <c r="C6">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="D6">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -977,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K6">
-        <v>0.8615384615384616</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1001,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1009,13 +1042,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9408602150537635</v>
+        <v>0.9368932038834952</v>
       </c>
       <c r="C7">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D7">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1027,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7">
-        <v>0.8441558441558441</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1051,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1059,13 +1092,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9368421052631579</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="C8">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D8">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1077,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K8">
-        <v>0.8301886792452831</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1101,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1109,13 +1142,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9295774647887324</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1130,16 +1163,16 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1159,13 +1192,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.890625</v>
+        <v>0.90625</v>
       </c>
       <c r="C10">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1177,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.8195020746887967</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>395</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>395</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1201,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1209,13 +1242,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.873015873015873</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1227,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K11">
-        <v>0.7883817427385892</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>380</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>380</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1251,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1259,13 +1292,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.859375</v>
+        <v>0.875</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1277,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K12">
-        <v>0.7857142857142857</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1301,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1309,13 +1342,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7962962962962963</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="C13">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D13">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1327,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K13">
-        <v>0.7733142037302726</v>
+        <v>0.7747489239598279</v>
       </c>
       <c r="L13">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M13">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1351,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1359,13 +1392,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7951807228915663</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1377,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K14">
-        <v>0.7321428571428571</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1401,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1409,13 +1442,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1427,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K15">
-        <v>0.7289156626506024</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L15">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1451,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1459,13 +1492,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7837837837837838</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="C16">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1477,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K16">
-        <v>0.7272727272727273</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1501,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1509,13 +1542,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7677725118483413</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C17">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1527,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>0.6909090909090909</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1551,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1559,13 +1592,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.75</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1577,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1601,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1609,13 +1642,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7454545454545455</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1627,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K19">
-        <v>0.6636085626911316</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L19">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1651,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1659,13 +1692,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7422680412371134</v>
+        <v>0.8</v>
       </c>
       <c r="C20">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1677,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K20">
-        <v>0.6521739130434783</v>
+        <v>0.6941896024464832</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1701,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1709,13 +1742,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7368421052631579</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1727,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K21">
-        <v>0.6360655737704918</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="L21">
-        <v>776</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>776</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1751,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>444</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1759,13 +1792,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7301587301587301</v>
+        <v>0.7725118483412322</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1777,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K22">
-        <v>0.6285714285714286</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1801,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1809,13 +1842,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7272727272727273</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1827,19 +1860,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K23">
-        <v>0.5652173913043478</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L23">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1851,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1859,13 +1892,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6829268292682927</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1877,19 +1910,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K24">
-        <v>0.5459610027855153</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1901,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>163</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1909,13 +1942,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6638655462184874</v>
+        <v>0.765625</v>
       </c>
       <c r="C25">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1927,31 +1960,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K25">
-        <v>0.5147058823529411</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1959,13 +1992,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6607142857142857</v>
+        <v>0.7525773195876289</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1977,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K26">
-        <v>0.5042735042735043</v>
+        <v>0.5811965811965812</v>
       </c>
       <c r="L26">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="M26">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2001,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2009,13 +2042,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6579710144927536</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="C27">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2027,19 +2060,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K27">
-        <v>0.5026455026455027</v>
+        <v>0.5738916256157636</v>
       </c>
       <c r="L27">
-        <v>95</v>
+        <v>699</v>
       </c>
       <c r="M27">
-        <v>95</v>
+        <v>701</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2048,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>94</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2059,7 +2092,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6551724137931034</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C28">
         <v>38</v>
@@ -2077,19 +2110,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K28">
-        <v>0.4166666666666667</v>
+        <v>0.5376044568245125</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2101,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>70</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2109,13 +2142,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6481481481481481</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2127,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K29">
-        <v>0.4140168721609345</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L29">
-        <v>638</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>638</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2151,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>903</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2159,13 +2192,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6435643564356436</v>
+        <v>0.6506024096385542</v>
       </c>
       <c r="C30">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2177,31 +2210,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K30">
-        <v>0.3532513181019332</v>
+        <v>0.425</v>
       </c>
       <c r="L30">
-        <v>402</v>
+        <v>51</v>
       </c>
       <c r="M30">
-        <v>405</v>
+        <v>51</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>736</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2209,13 +2242,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.639344262295082</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2227,19 +2260,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K31">
-        <v>0.3360655737704918</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2251,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2259,13 +2292,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6285714285714286</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2277,19 +2310,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K32">
-        <v>0.2597402597402597</v>
+        <v>0.4204028589993502</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>647</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>649</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2298,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>114</v>
+        <v>892</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2309,13 +2342,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6043956043956044</v>
+        <v>0.6202898550724638</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="D33">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2327,31 +2360,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K33">
-        <v>0.2473867595818815</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="L33">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>216</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2359,13 +2392,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5942028985507246</v>
+        <v>0.6138613861386139</v>
       </c>
       <c r="C34">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2377,19 +2410,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K34">
-        <v>0.224</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2401,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2409,13 +2442,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5925925925925926</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="C35">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2427,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K35">
-        <v>0.2063492063492063</v>
+        <v>0.319672131147541</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2451,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2459,13 +2492,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5555555555555556</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2477,19 +2510,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K36">
-        <v>0.1678321678321678</v>
+        <v>0.3146362839614373</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>359</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>359</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2501,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>119</v>
+        <v>782</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2509,13 +2542,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2527,31 +2560,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K37">
-        <v>0.1635388739946381</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="L37">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M37">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="N37">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>312</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2559,49 +2592,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5333333333333333</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C38">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="E38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K38">
-        <v>0.1336032388663968</v>
+        <v>0.264</v>
       </c>
       <c r="L38">
         <v>33</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>214</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2609,13 +2642,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5333333333333333</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2627,31 +2660,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K39">
-        <v>0.07610146862483311</v>
+        <v>0.2569444444444444</v>
       </c>
       <c r="L39">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="M39">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>692</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2659,13 +2692,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5238095238095238</v>
+        <v>0.5348101265822784</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2677,31 +2710,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K40">
-        <v>0.06361323155216285</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N40">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>368</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2709,13 +2742,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5178571428571429</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="C41">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2727,7 +2760,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41">
+        <v>0.2377622377622378</v>
+      </c>
+      <c r="L41">
+        <v>34</v>
+      </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2735,25 +2792,49 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="C42">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="D42">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>158</v>
+        <v>41</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K42">
+        <v>0.2265625</v>
+      </c>
+      <c r="L42">
+        <v>29</v>
+      </c>
+      <c r="M42">
+        <v>29</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2761,13 +2842,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4791666666666667</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2779,7 +2860,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L43">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>31</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2787,13 +2892,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.427536231884058</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C44">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2805,7 +2910,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>158</v>
+        <v>28</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44">
+        <v>0.1524064171122995</v>
+      </c>
+      <c r="L44">
+        <v>57</v>
+      </c>
+      <c r="M44">
+        <v>57</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2813,13 +2942,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4269662921348314</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="C45">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D45">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2831,7 +2960,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K45">
+        <v>0.1311914323962517</v>
+      </c>
+      <c r="L45">
+        <v>98</v>
+      </c>
+      <c r="M45">
+        <v>103</v>
+      </c>
+      <c r="N45">
+        <v>0.95</v>
+      </c>
+      <c r="O45">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>649</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2839,13 +2992,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.37</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C46">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2857,7 +3010,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>126</v>
+        <v>32</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K46">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="L46">
+        <v>32</v>
+      </c>
+      <c r="M46">
+        <v>33</v>
+      </c>
+      <c r="N46">
+        <v>0.97</v>
+      </c>
+      <c r="O46">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2865,13 +3042,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3604651162790697</v>
+        <v>0.4272151898734177</v>
       </c>
       <c r="C47">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="D47">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2883,7 +3060,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>55</v>
+        <v>181</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K47">
+        <v>0.1203703703703704</v>
+      </c>
+      <c r="L47">
+        <v>39</v>
+      </c>
+      <c r="M47">
+        <v>39</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2891,13 +3092,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.358974358974359</v>
+        <v>0.4021739130434783</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2909,47 +3110,95 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K48">
+        <v>0.0916030534351145</v>
+      </c>
+      <c r="L48">
+        <v>36</v>
+      </c>
+      <c r="M48">
+        <v>39</v>
+      </c>
+      <c r="N48">
+        <v>0.92</v>
+      </c>
+      <c r="O48">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3162393162393162</v>
+        <v>0.3727810650887574</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D49">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K49">
+        <v>0.0481283422459893</v>
+      </c>
+      <c r="L49">
+        <v>27</v>
+      </c>
+      <c r="M49">
+        <v>31</v>
+      </c>
+      <c r="N49">
+        <v>0.87</v>
+      </c>
+      <c r="O49">
+        <v>0.13</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3108108108108108</v>
+        <v>0.3715846994535519</v>
       </c>
       <c r="C50">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D50">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2961,99 +3210,99 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2938144329896907</v>
+        <v>0.365</v>
       </c>
       <c r="C51">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D51">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E51">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2916666666666667</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C52">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="E52">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2905982905982906</v>
+        <v>0.353448275862069</v>
       </c>
       <c r="C53">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D53">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2677595628415301</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C54">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D54">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3065,21 +3314,21 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.267515923566879</v>
+        <v>0.2602040816326531</v>
       </c>
       <c r="C55">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D55">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3091,47 +3340,47 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2658227848101266</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C56">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="D56">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E56">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2440944881889764</v>
+        <v>0.2519685039370079</v>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3143,73 +3392,73 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2421875</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C58">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D58">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.24</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="C59">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D59">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2298850574712644</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C60">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D60">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3221,73 +3470,73 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2280701754385965</v>
+        <v>0.2199108469539376</v>
       </c>
       <c r="C61">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="D61">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2142857142857143</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D62">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2092511013215859</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="C63">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D63">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3299,33 +3548,33 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1666666666666667</v>
+        <v>0.2138728323699422</v>
       </c>
       <c r="C64">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D64">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="E64">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F64">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>545</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3333,25 +3582,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1635514018691589</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="C65">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D65">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>179</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3359,25 +3608,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1354166666666667</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="C66">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D66">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3385,25 +3634,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1189189189189189</v>
+        <v>0.1901840490797546</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="D67">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="E67">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F67">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>163</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3411,25 +3660,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1176470588235294</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="C68">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D68">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>165</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3437,25 +3686,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1098901098901099</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C69">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D69">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E69">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>324</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3463,25 +3712,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.09930715935334873</v>
+        <v>0.160427807486631</v>
       </c>
       <c r="C70">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D70">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>390</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3489,25 +3738,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09712230215827339</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="C71">
         <v>27</v>
       </c>
       <c r="D71">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>251</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3515,13 +3764,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09686609686609686</v>
+        <v>0.126463700234192</v>
       </c>
       <c r="C72">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D72">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E72">
         <v>0.11</v>
@@ -3533,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>317</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3541,25 +3790,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.09345794392523364</v>
+        <v>0.115702479338843</v>
       </c>
       <c r="C73">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D73">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E73">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="F73">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>388</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3567,25 +3816,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08333333333333333</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="C74">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E74">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F74">
-        <v>0.88</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>242</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3593,25 +3842,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.064</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="C75">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D75">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E75">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F75">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>468</v>
+        <v>395</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3619,25 +3868,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.05843071786310518</v>
+        <v>0.07971014492753623</v>
       </c>
       <c r="C76">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D76">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F76">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>564</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3645,25 +3894,77 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04430379746835443</v>
+        <v>0.0499001996007984</v>
       </c>
       <c r="C77">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D77">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F77">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>755</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.03826955074875208</v>
+      </c>
+      <c r="C78">
+        <v>23</v>
+      </c>
+      <c r="D78">
+        <v>30</v>
+      </c>
+      <c r="E78">
+        <v>0.23</v>
+      </c>
+      <c r="F78">
+        <v>0.77</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.03209242618741977</v>
+      </c>
+      <c r="C79">
+        <v>25</v>
+      </c>
+      <c r="D79">
+        <v>40</v>
+      </c>
+      <c r="E79">
+        <v>0.38</v>
+      </c>
+      <c r="F79">
+        <v>0.62</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
